--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3876CA-F67E-134F-973A-255AA0728BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065D3F7-7493-8345-B565-7781C327CB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="7780" windowWidth="28800" windowHeight="16140" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>CV2_1</t>
   </si>
   <si>
-    <t>CV3_1</t>
-  </si>
-  <si>
     <t>CV3_2</t>
   </si>
   <si>
@@ -518,6 +515,9 @@
   </si>
   <si>
     <t>Videos</t>
+  </si>
+  <si>
+    <t>CV3_1_(NightRecording)</t>
   </si>
 </sst>
 </file>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,22 +883,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -912,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,15 +929,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -946,15 +946,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -963,15 +963,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -980,12 +980,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -994,15 +994,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1011,15 +1011,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1028,12 +1028,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1042,12 +1042,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1056,12 +1056,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1070,15 +1070,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1101,12 +1101,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1115,12 +1115,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1129,12 +1129,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1143,12 +1143,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1157,12 +1157,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1171,12 +1171,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1185,12 +1185,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1199,12 +1199,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1213,12 +1213,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1227,15 +1227,15 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1244,15 +1244,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1261,15 +1261,15 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1278,15 +1278,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1295,12 +1295,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1309,668 +1309,668 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -2048,66 +2048,66 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -2126,24 +2126,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -2232,10 +2232,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C1">
         <v>2000</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065D3F7-7493-8345-B565-7781C327CB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20FBA4-04D4-E04D-94EC-9CC1020EA44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="5220" yWindow="4900" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="165">
   <si>
     <t>CV</t>
   </si>
@@ -518,6 +519,9 @@
   </si>
   <si>
     <t>CV3_1_(NightRecording)</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
   </si>
 </sst>
 </file>
@@ -872,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,8 +1976,8 @@
       <c r="D72" t="s">
         <v>99</v>
       </c>
-      <c r="F72">
-        <v>0</v>
+      <c r="F72" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,8 +1990,8 @@
       <c r="C73" t="b">
         <v>1</v>
       </c>
-      <c r="F73">
-        <v>0</v>
+      <c r="F73" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2000,8 +2004,8 @@
       <c r="C74" t="b">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>0</v>
+      <c r="F74" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2014,8 +2018,8 @@
       <c r="C75" t="b">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>0</v>
+      <c r="F75" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2028,8 +2032,8 @@
       <c r="C76" t="b">
         <v>1</v>
       </c>
-      <c r="F76">
-        <v>0</v>
+      <c r="F76" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,8 +2046,8 @@
       <c r="C77" t="b">
         <v>1</v>
       </c>
-      <c r="F77">
-        <v>0</v>
+      <c r="F77" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2059,6 +2063,9 @@
       <c r="D78" t="s">
         <v>138</v>
       </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -2073,6 +2080,9 @@
       <c r="D79" t="s">
         <v>138</v>
       </c>
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -2087,8 +2097,11 @@
       <c r="D80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2101,8 +2114,11 @@
       <c r="D81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2112,8 +2128,11 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2123,8 +2142,11 @@
       <c r="C83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2137,8 +2159,11 @@
       <c r="D84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2148,8 +2173,11 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2159,8 +2187,11 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2170,8 +2201,11 @@
       <c r="C87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2181,8 +2215,11 @@
       <c r="C88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2192,8 +2229,11 @@
       <c r="C89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2203,8 +2243,11 @@
       <c r="C90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2213,6 +2256,9 @@
       </c>
       <c r="C91" t="b">
         <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20FBA4-04D4-E04D-94EC-9CC1020EA44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4826C-1EE4-7D4D-959C-2802997CF5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="4900" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="8840" yWindow="4340" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,9 +502,6 @@
     <t>2,4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>5,6,7,8</t>
-  </si>
-  <si>
     <t>1,2,10,11</t>
   </si>
   <si>
@@ -521,7 +517,10 @@
     <t>CV3_1_(NightRecording)</t>
   </si>
   <si>
-    <t>1,3,5</t>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>5,6,7,8,9</t>
   </si>
 </sst>
 </file>
@@ -876,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:F91"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +901,7 @@
         <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -941,7 +940,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1361,7 +1360,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
@@ -1375,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -1392,7 +1391,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>118</v>
@@ -1420,7 +1419,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>120</v>
@@ -1496,7 +1495,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>123</v>
@@ -1516,7 +1515,7 @@
         <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,7 +1526,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -1569,7 +1568,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
@@ -1634,7 +1633,7 @@
         <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1651,7 +1650,7 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1724,7 +1723,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>126</v>
@@ -1769,7 +1768,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>129</v>
@@ -1783,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>121</v>
@@ -1797,7 +1796,7 @@
         <v>53</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>130</v>
@@ -1811,7 +1810,7 @@
         <v>53</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>99</v>
@@ -1828,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>131</v>
@@ -1842,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>99</v>
@@ -1904,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1977,7 +1976,7 @@
         <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2005,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2019,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2047,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2064,7 +2063,7 @@
         <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2081,7 +2080,7 @@
         <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2098,7 +2097,7 @@
         <v>138</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2115,7 +2114,7 @@
         <v>138</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2129,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2143,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2160,7 +2159,7 @@
         <v>137</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2174,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2188,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2202,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2216,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2230,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2244,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2258,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4826C-1EE4-7D4D-959C-2802997CF5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3566C6D-C55A-C141-99DA-BD34BF190C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="4340" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
   <si>
     <t>CV</t>
   </si>
@@ -481,15 +481,9 @@
     <t>Something wrong with the logfile - Delete?</t>
   </si>
   <si>
-    <t>4,5,7</t>
-  </si>
-  <si>
     <t>Maybe - 1 day of building</t>
   </si>
   <si>
-    <t>7,8,9,10</t>
-  </si>
-  <si>
     <t>2,3,4,5,14</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>3,4,6,7</t>
   </si>
   <si>
-    <t>2,4,5,6,7,8,9</t>
-  </si>
-  <si>
     <t>1,2,10,11</t>
   </si>
   <si>
@@ -517,10 +508,106 @@
     <t>CV3_1_(NightRecording)</t>
   </si>
   <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
-    <t>5,6,7,8,9</t>
+    <t>MC15_1</t>
+  </si>
+  <si>
+    <t>MC15_3</t>
+  </si>
+  <si>
+    <t>MC16_1</t>
+  </si>
+  <si>
+    <t>MC16_2</t>
+  </si>
+  <si>
+    <t>MC17_1</t>
+  </si>
+  <si>
+    <t>MC17_2</t>
+  </si>
+  <si>
+    <t>MC20_1</t>
+  </si>
+  <si>
+    <t>MCxCVF1_12a_1</t>
+  </si>
+  <si>
+    <t>MCxCVF1_12a_2</t>
+  </si>
+  <si>
+    <t>MCxCVF1_12b_1</t>
+  </si>
+  <si>
+    <t>MCxCVF1_12b_2</t>
+  </si>
+  <si>
+    <t>TI5_1_newtray</t>
+  </si>
+  <si>
+    <t>TI6_1_newtray</t>
+  </si>
+  <si>
+    <t>TI6_2</t>
+  </si>
+  <si>
+    <t>TI7_1</t>
+  </si>
+  <si>
+    <t>TI8_1</t>
+  </si>
+  <si>
+    <t>MCxCVF1_3_3</t>
+  </si>
+  <si>
+    <t>MCxCVF1_4_7</t>
+  </si>
+  <si>
+    <t>MC1_1</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>MC21_1</t>
+  </si>
+  <si>
+    <t>MC20_2</t>
+  </si>
+  <si>
+    <t>Froze for three days. Probably good for final shape but there's an issue with the tray that should be fixed</t>
+  </si>
+  <si>
+    <t>Ok - not a ton of building</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Great building - looks like an F1</t>
+  </si>
+  <si>
+    <t>Good building</t>
+  </si>
+  <si>
+    <t>TI9_1</t>
+  </si>
+  <si>
+    <t>TI10_1</t>
+  </si>
+  <si>
+    <t>TI11_1</t>
+  </si>
+  <si>
+    <t>TI12_1</t>
+  </si>
+  <si>
+    <t>TI13_1</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10</t>
   </si>
 </sst>
 </file>
@@ -873,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +988,7 @@
         <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,7 +1027,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1232,9 +1319,6 @@
       <c r="E23" t="s">
         <v>105</v>
       </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1250,7 +1334,7 @@
         <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1266,9 +1350,6 @@
       <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1283,9 +1364,6 @@
       <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="F26" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1315,12 +1393,12 @@
         <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -1329,15 +1407,12 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1346,15 +1421,15 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -1363,12 +1438,15 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -1376,58 +1454,58 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -1436,29 +1514,26 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1467,43 +1542,46 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1512,15 +1590,12 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1529,12 +1604,12 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1543,12 +1618,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -1562,21 +1637,21 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -1585,15 +1660,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -1604,78 +1679,69 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
       <c r="E49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -1683,137 +1749,134 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="F60" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>121</v>
@@ -1821,24 +1884,24 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -1847,417 +1910,745 @@
         <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B90" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B91" t="s">
         <v>64</v>
       </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B92" t="s">
         <v>64</v>
       </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B93" t="s">
         <v>64</v>
       </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B94" t="s">
         <v>64</v>
       </c>
-      <c r="C68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B95" t="s">
         <v>64</v>
       </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B96" t="s">
         <v>64</v>
       </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B97" t="s">
         <v>64</v>
       </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B98" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
         <v>99</v>
       </c>
-      <c r="F72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B99" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B100" t="s">
         <v>70</v>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B101" t="s">
         <v>70</v>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B102" t="s">
         <v>70</v>
       </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B103" t="s">
         <v>70</v>
       </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B104" t="s">
         <v>77</v>
       </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
         <v>138</v>
       </c>
-      <c r="F78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="F104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B105" t="s">
         <v>77</v>
       </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
         <v>138</v>
       </c>
-      <c r="F79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="F105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B106" t="s">
         <v>77</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
         <v>138</v>
       </c>
-      <c r="F80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B107" t="s">
         <v>77</v>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
         <v>138</v>
       </c>
-      <c r="F81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="F107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B108" t="s">
         <v>77</v>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B110" t="s">
         <v>77</v>
       </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
         <v>137</v>
       </c>
-      <c r="F84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="F110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>82</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B112" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B113" t="s">
         <v>86</v>
       </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B114" t="s">
         <v>86</v>
       </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B115" t="s">
         <v>86</v>
       </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B116" t="s">
         <v>86</v>
       </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B117" t="s">
         <v>86</v>
       </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>163</v>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3566C6D-C55A-C141-99DA-BD34BF190C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900989BF-7542-AB43-96F7-2629649047F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="8440" yWindow="3440" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1864,11 +1864,14 @@
       <c r="E60" t="s">
         <v>105</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900989BF-7542-AB43-96F7-2629649047F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4946C-4EFC-9548-9111-09DDAE78E097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="3440" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1864,14 +1864,11 @@
       <c r="E60" t="s">
         <v>105</v>
       </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -1899,7 +1896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4946C-4EFC-9548-9111-09DDAE78E097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7200559-9ECC-B647-A878-660C197A3F1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,6 +1319,9 @@
       <c r="E23" t="s">
         <v>105</v>
       </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1691,7 +1694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1864,11 +1867,14 @@
       <c r="E60" t="s">
         <v>105</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7200559-9ECC-B647-A878-660C197A3F1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E4018-D9DD-0342-AC24-2EA4EA695511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="2200" yWindow="2360" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="206">
   <si>
     <t>CV</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Use - something weird about it</t>
   </si>
   <si>
-    <t>Videos</t>
-  </si>
-  <si>
     <t>CV3_1_(NightRecording)</t>
   </si>
   <si>
@@ -607,7 +604,46 @@
     <t>1,2,3,5</t>
   </si>
   <si>
-    <t>1,2,3,4,10</t>
+    <t>ClusterAnalysis</t>
+  </si>
+  <si>
+    <t>Enter the videos you want analyzed by HMM, Cluster, and ML prediction analysis (Day 1 = 1)</t>
+  </si>
+  <si>
+    <t>ManualPrediction</t>
+  </si>
+  <si>
+    <t>Enter the videos you want to manually annotate clips from</t>
+  </si>
+  <si>
+    <t>Machine Learning Models. Enter the videos you want included in the machine learning model</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>PaperTrials</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,9</t>
   </si>
 </sst>
 </file>
@@ -643,9 +679,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,451 +1010,472 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>107</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="G24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="G26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>105</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1423,16 +1483,13 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
       <c r="F30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -1440,16 +1497,16 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
       <c r="F31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -1457,58 +1514,61 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -1516,13 +1576,13 @@
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -1530,30 +1590,27 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -1561,44 +1618,50 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>105</v>
-      </c>
       <c r="F39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1606,27 +1669,27 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -1634,13 +1697,13 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1648,13 +1711,13 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -1662,13 +1725,13 @@
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -1676,27 +1739,27 @@
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1704,13 +1767,13 @@
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -1718,13 +1781,13 @@
       <c r="C50" t="b">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -1732,13 +1795,13 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -1746,13 +1809,19 @@
       <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="E52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -1760,13 +1829,13 @@
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -1774,13 +1843,13 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
@@ -1788,11 +1857,11 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1802,27 +1871,27 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>46</v>
       </c>
       <c r="B58" t="s">
         <v>45</v>
@@ -1830,33 +1899,27 @@
       <c r="C58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
         <v>45</v>
@@ -1865,32 +1928,41 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="s">
         <v>105</v>
       </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
       <c r="G60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -1898,58 +1970,67 @@
       <c r="C62" t="b">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" t="s">
         <v>99</v>
       </c>
-      <c r="E64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -1958,9 +2039,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -1969,9 +2050,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -1980,9 +2061,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -1991,9 +2072,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -2002,9 +2083,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
@@ -2013,9 +2094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -2024,9 +2105,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
@@ -2035,9 +2116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -2046,40 +2127,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>54</v>
-      </c>
-      <c r="B75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>55</v>
       </c>
       <c r="B76" t="s">
         <v>53</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
         <v>53</v>
@@ -2088,26 +2163,29 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
         <v>53</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>53</v>
@@ -2115,10 +2193,13 @@
       <c r="C79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
@@ -2126,13 +2207,10 @@
       <c r="C80" t="b">
         <v>1</v>
       </c>
-      <c r="E80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
@@ -2140,13 +2218,13 @@
       <c r="C81" t="b">
         <v>1</v>
       </c>
-      <c r="E81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -2154,16 +2232,13 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
@@ -2172,12 +2247,15 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2185,16 +2263,13 @@
       <c r="C84" t="b">
         <v>1</v>
       </c>
-      <c r="D84" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -2202,10 +2277,16 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -2214,9 +2295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
         <v>53</v>
@@ -2224,10 +2305,16 @@
       <c r="C87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
         <v>53</v>
@@ -2236,9 +2323,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -2246,24 +2333,27 @@
       <c r="C89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>63</v>
-      </c>
-      <c r="B90" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>134</v>
       </c>
       <c r="B91" t="s">
         <v>64</v>
@@ -2271,13 +2361,13 @@
       <c r="C91" t="b">
         <v>1</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
@@ -2285,13 +2375,13 @@
       <c r="C92" t="b">
         <v>1</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -2299,41 +2389,41 @@
       <c r="C93" t="b">
         <v>1</v>
       </c>
-      <c r="E93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
@@ -2341,13 +2431,13 @@
       <c r="C96" t="b">
         <v>1</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
@@ -2355,30 +2445,27 @@
       <c r="C97" t="b">
         <v>1</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>71</v>
-      </c>
-      <c r="B98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>99</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>72</v>
       </c>
       <c r="B99" t="s">
         <v>70</v>
@@ -2386,13 +2473,16 @@
       <c r="C99" t="b">
         <v>1</v>
       </c>
-      <c r="F99" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
         <v>70</v>
@@ -2400,13 +2490,13 @@
       <c r="C100" t="b">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
         <v>70</v>
@@ -2414,13 +2504,13 @@
       <c r="C101" t="b">
         <v>1</v>
       </c>
-      <c r="F101" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
         <v>70</v>
@@ -2428,13 +2518,13 @@
       <c r="C102" t="b">
         <v>1</v>
       </c>
-      <c r="F102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
         <v>70</v>
@@ -2442,30 +2532,27 @@
       <c r="C103" t="b">
         <v>1</v>
       </c>
-      <c r="F103" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>78</v>
-      </c>
-      <c r="B104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>79</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -2473,16 +2560,16 @@
       <c r="C105" t="b">
         <v>1</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>138</v>
       </c>
-      <c r="F105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -2490,16 +2577,16 @@
       <c r="C106" t="b">
         <v>1</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>138</v>
       </c>
-      <c r="F106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -2507,16 +2594,16 @@
       <c r="C107" t="b">
         <v>1</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>138</v>
       </c>
-      <c r="F107" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -2524,13 +2611,16 @@
       <c r="C108" t="b">
         <v>1</v>
       </c>
-      <c r="F108" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -2538,13 +2628,13 @@
       <c r="C109" t="b">
         <v>1</v>
       </c>
-      <c r="F109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -2552,16 +2642,13 @@
       <c r="C110" t="b">
         <v>1</v>
       </c>
-      <c r="D110" t="s">
-        <v>137</v>
-      </c>
-      <c r="F110" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -2569,27 +2656,30 @@
       <c r="C111" t="b">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>137</v>
+      </c>
+      <c r="G111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>87</v>
-      </c>
-      <c r="B112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>88</v>
       </c>
       <c r="B113" t="s">
         <v>86</v>
@@ -2597,13 +2687,13 @@
       <c r="C113" t="b">
         <v>1</v>
       </c>
-      <c r="F113" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>86</v>
@@ -2611,13 +2701,13 @@
       <c r="C114" t="b">
         <v>1</v>
       </c>
-      <c r="F114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
         <v>86</v>
@@ -2625,13 +2715,13 @@
       <c r="C115" t="b">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
         <v>86</v>
@@ -2639,13 +2729,13 @@
       <c r="C116" t="b">
         <v>1</v>
       </c>
-      <c r="F116" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
         <v>86</v>
@@ -2653,11 +2743,28 @@
       <c r="C117" t="b">
         <v>1</v>
       </c>
-      <c r="F117" t="s">
-        <v>192</v>
+      <c r="G117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E4018-D9DD-0342-AC24-2EA4EA695511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B51A6-A1C2-CD4E-B96B-CF98AB5B447B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2360" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,9 +631,6 @@
     <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
     <t>4,5,6,7</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1388,7 @@
         <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
         <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1816,7 +1816,7 @@
         <v>183</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
         <v>199</v>
       </c>
       <c r="G87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>199</v>
       </c>
       <c r="G89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B51A6-A1C2-CD4E-B96B-CF98AB5B447B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C9B73-DFC6-FF4E-8125-87AE3EBC2D6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1390,8 +1390,11 @@
       <c r="G24" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1427,8 +1430,11 @@
       <c r="G26" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>177</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1818,6 +1824,9 @@
       <c r="G52" t="s">
         <v>205</v>
       </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -1953,11 +1962,11 @@
       <c r="F61" t="s">
         <v>105</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61">
         <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2010,6 +2019,9 @@
       <c r="G64" t="s">
         <v>197</v>
       </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -2208,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -2311,8 +2323,11 @@
       <c r="G87" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -2339,8 +2354,11 @@
       <c r="G89" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -2379,7 +2397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>68</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2479,8 +2497,11 @@
       <c r="G99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -2494,7 +2515,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>73</v>
       </c>
@@ -2508,7 +2529,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>75</v>
       </c>
@@ -2536,7 +2557,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>76</v>
       </c>
@@ -2550,7 +2571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -2566,8 +2587,11 @@
       <c r="G105" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -2584,7 +2608,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>80</v>
       </c>
@@ -2601,7 +2625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -2618,7 +2642,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -2631,8 +2655,11 @@
       <c r="G109" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -2663,7 +2690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -2677,7 +2704,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -2690,8 +2717,11 @@
       <c r="G113" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -2705,7 +2735,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -2719,7 +2749,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -2732,8 +2762,11 @@
       <c r="G116" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>92</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C9B73-DFC6-FF4E-8125-87AE3EBC2D6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8BEE2-5DB9-5345-9D63-66FFAC710B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="8440" yWindow="900" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
   <si>
     <t>CV</t>
   </si>
@@ -640,10 +640,10 @@
     <t>4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>2,3,4,5,6,7,8,9</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1527,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1650,8 +1650,14 @@
       <c r="G40" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -1822,13 +1828,16 @@
         <v>183</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -1983,7 +1992,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2351,8 +2360,8 @@
       <c r="D89" t="s">
         <v>199</v>
       </c>
-      <c r="G89" t="s">
-        <v>204</v>
+      <c r="F89" t="s">
+        <v>205</v>
       </c>
       <c r="H89">
         <v>2</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8BEE2-5DB9-5345-9D63-66FFAC710B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE38FE1-7BA2-9C4D-8E90-124FCFEC534C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8440" yWindow="900" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="206">
   <si>
     <t>CV</t>
   </si>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,6 +2361,9 @@
         <v>199</v>
       </c>
       <c r="F89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
         <v>205</v>
       </c>
       <c r="H89">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE38FE1-7BA2-9C4D-8E90-124FCFEC534C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A4D50-24DD-6740-BE7D-0AADDAEF6DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="900" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="213">
   <si>
     <t>CV</t>
   </si>
@@ -644,6 +644,27 @@
   </si>
   <si>
     <t>7,8,9</t>
+  </si>
+  <si>
+    <t>TI14_1_050519</t>
+  </si>
+  <si>
+    <t>TI14_2_051919</t>
+  </si>
+  <si>
+    <t>MCxCVF1_3_5</t>
+  </si>
+  <si>
+    <t>MCxCVF1_4_6</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>TI_male_con1</t>
+  </si>
+  <si>
+    <t>TI_male_con2</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,77 +2182,74 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
         <v>53</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>53</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
@@ -2240,12 +2258,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -2253,13 +2271,10 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
@@ -2267,16 +2282,10 @@
       <c r="C83" t="b">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2285,12 +2294,12 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -2298,16 +2307,13 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-      <c r="E85" t="s">
-        <v>99</v>
-      </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -2315,10 +2321,16 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
         <v>53</v>
@@ -2326,19 +2338,13 @@
       <c r="C87" t="b">
         <v>1</v>
       </c>
-      <c r="D87" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" t="s">
-        <v>203</v>
-      </c>
-      <c r="H87">
-        <v>4</v>
+      <c r="F87" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
         <v>53</v>
@@ -2346,10 +2352,16 @@
       <c r="C88" t="b">
         <v>1</v>
       </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -2357,22 +2369,13 @@
       <c r="C89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
-      </c>
-      <c r="G89" t="s">
-        <v>205</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
+      <c r="E89" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2383,77 +2386,86 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
-        <v>133</v>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="G91" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
+      <c r="D93" t="s">
+        <v>199</v>
+      </c>
       <c r="F93" t="s">
-        <v>133</v>
+        <v>205</v>
+      </c>
+      <c r="G93" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
@@ -2462,12 +2474,12 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
@@ -2476,12 +2488,12 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
@@ -2490,74 +2502,68 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s">
-        <v>191</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
-      <c r="G100" t="s">
-        <v>191</v>
+      <c r="F100" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
-      <c r="G101" t="s">
-        <v>191</v>
+      <c r="F101" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
       </c>
-      <c r="G102" t="s">
-        <v>191</v>
+      <c r="F102" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
         <v>70</v>
@@ -2565,13 +2571,19 @@
       <c r="C103" t="b">
         <v>1</v>
       </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
       <c r="G103" t="s">
         <v>191</v>
       </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
         <v>70</v>
@@ -2585,36 +2597,27 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
-      </c>
-      <c r="E105" t="s">
-        <v>138</v>
       </c>
       <c r="G105" t="s">
         <v>191</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>138</v>
       </c>
       <c r="G106" t="s">
         <v>191</v>
@@ -2622,16 +2625,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>138</v>
       </c>
       <c r="G107" t="s">
         <v>191</v>
@@ -2639,16 +2639,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>138</v>
       </c>
       <c r="G108" t="s">
         <v>191</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -2664,6 +2661,9 @@
       <c r="C109" t="b">
         <v>1</v>
       </c>
+      <c r="E109" t="s">
+        <v>138</v>
+      </c>
       <c r="G109" t="s">
         <v>191</v>
       </c>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -2681,13 +2681,16 @@
       <c r="C110" t="b">
         <v>1</v>
       </c>
+      <c r="E110" t="s">
+        <v>138</v>
+      </c>
       <c r="G110" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -2696,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G111" t="s">
         <v>191</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -2712,16 +2715,19 @@
       <c r="C112" t="b">
         <v>1</v>
       </c>
+      <c r="E112" t="s">
+        <v>138</v>
+      </c>
       <c r="G112" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -2735,10 +2741,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
@@ -2749,13 +2755,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>137</v>
       </c>
       <c r="G115" t="s">
         <v>191</v>
@@ -2763,10 +2772,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -2774,13 +2783,10 @@
       <c r="G116" t="s">
         <v>191</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
         <v>86</v>
@@ -2791,10 +2797,13 @@
       <c r="G117" t="s">
         <v>191</v>
       </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
         <v>86</v>
@@ -2804,6 +2813,87 @@
       </c>
       <c r="G118" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>191</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A4D50-24DD-6740-BE7D-0AADDAEF6DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F2B41-D759-6E44-B034-4B59384AFBDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F2B41-D759-6E44-B034-4B59384AFBDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3060253-44A0-5A4E-B64D-DB3EF59A0033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,6 +1076,9 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2431,8 +2434,8 @@
       <c r="F93" t="s">
         <v>205</v>
       </c>
-      <c r="G93" t="s">
-        <v>205</v>
+      <c r="G93">
+        <v>9</v>
       </c>
       <c r="H93">
         <v>2</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3060253-44A0-5A4E-B64D-DB3EF59A0033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42404CC3-C99E-ED4A-ABBF-B3DCEA34626B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="213">
   <si>
     <t>CV</t>
   </si>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1854,8 +1854,8 @@
       <c r="G52" t="s">
         <v>204</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="s">
+        <v>204</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42404CC3-C99E-ED4A-ABBF-B3DCEA34626B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEAAD5-232D-C149-956A-8D100582E3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
   <si>
     <t>CV</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>TI_male_con2</t>
+  </si>
+  <si>
+    <t>modelMC6_5</t>
+  </si>
+  <si>
+    <t>modelMC16_2</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,10 +1080,10 @@
         <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEAAD5-232D-C149-956A-8D100582E3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95B243-7C99-7D45-976E-00EDE20D3F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="18900" yWindow="5840" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="229">
   <si>
     <t>CV</t>
   </si>
@@ -671,6 +671,48 @@
   </si>
   <si>
     <t>modelMC16_2</t>
+  </si>
+  <si>
+    <t>TI15_1_060219_Tk31</t>
+  </si>
+  <si>
+    <t>TI_social_fem_con1</t>
+  </si>
+  <si>
+    <t>TI_social_male_con1</t>
+  </si>
+  <si>
+    <t>TI_social_male_con2</t>
+  </si>
+  <si>
+    <t>CV_social_male_con1</t>
+  </si>
+  <si>
+    <t>CV_social_male_con1_2</t>
+  </si>
+  <si>
+    <t>CV_social_male_con2</t>
+  </si>
+  <si>
+    <t>CV_social_male_con3</t>
+  </si>
+  <si>
+    <t>CV_social_male_con3_2</t>
+  </si>
+  <si>
+    <t>MC_social_male_con1</t>
+  </si>
+  <si>
+    <t>MC_social_male_con1_2</t>
+  </si>
+  <si>
+    <t>MC_social_male_con2</t>
+  </si>
+  <si>
+    <t>MC_social_male_con3</t>
+  </si>
+  <si>
+    <t>SocialMale</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>109</v>
@@ -1311,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1325,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>111</v>
@@ -1339,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -1353,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -1367,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>113</v>
@@ -1381,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>114</v>
@@ -1395,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>112</v>
@@ -1486,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>115</v>
@@ -1638,7 +1680,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>121</v>
@@ -1695,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>121</v>
@@ -1737,7 +1779,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>124</v>
@@ -1751,7 +1793,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>121</v>
@@ -1765,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>121</v>
@@ -1779,7 +1821,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>124</v>
@@ -1793,7 +1835,7 @@
         <v>43</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>121</v>
@@ -1945,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>121</v>
@@ -1959,7 +2001,7 @@
         <v>45</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>121</v>
@@ -2016,7 +2058,7 @@
         <v>45</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>121</v>
@@ -2030,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>121</v>
@@ -2070,7 +2112,7 @@
         <v>45</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -2213,38 +2255,32 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
         <v>53</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
@@ -2252,27 +2288,30 @@
       <c r="C80" t="b">
         <v>0</v>
       </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -2280,10 +2319,13 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
+      <c r="F82" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
@@ -2294,7 +2336,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2302,13 +2344,10 @@
       <c r="C84" t="b">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -2317,12 +2356,12 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -2330,16 +2369,13 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
-        <v>99</v>
-      </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
         <v>53</v>
@@ -2347,13 +2383,16 @@
       <c r="C87" t="b">
         <v>1</v>
       </c>
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
         <v>53</v>
@@ -2361,16 +2400,13 @@
       <c r="C88" t="b">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
-        <v>99</v>
-      </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -2379,12 +2415,15 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>99</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2392,10 +2431,13 @@
       <c r="C90" t="b">
         <v>1</v>
       </c>
+      <c r="E90" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>53</v>
@@ -2403,19 +2445,10 @@
       <c r="C91" t="b">
         <v>1</v>
       </c>
-      <c r="D91" t="s">
-        <v>199</v>
-      </c>
-      <c r="G91" t="s">
-        <v>203</v>
-      </c>
-      <c r="H91">
-        <v>4</v>
-      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
         <v>53</v>
@@ -2423,10 +2456,19 @@
       <c r="C92" t="b">
         <v>1</v>
       </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
@@ -2434,22 +2476,10 @@
       <c r="C93" t="b">
         <v>1</v>
       </c>
-      <c r="D93" t="s">
-        <v>199</v>
-      </c>
-      <c r="F93" t="s">
-        <v>205</v>
-      </c>
-      <c r="G93">
-        <v>9</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
@@ -2457,24 +2487,33 @@
       <c r="C94" t="b">
         <v>1</v>
       </c>
+      <c r="D94" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
@@ -2488,7 +2527,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
@@ -2502,7 +2541,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
@@ -2511,26 +2550,26 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
         <v>64</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
         <v>64</v>
@@ -2539,12 +2578,12 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
@@ -2558,7 +2597,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -2572,27 +2611,21 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
       </c>
-      <c r="E103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s">
-        <v>191</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
+      <c r="F103" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s">
         <v>70</v>
@@ -2600,13 +2633,19 @@
       <c r="C104" t="b">
         <v>1</v>
       </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
       <c r="G104" t="s">
         <v>191</v>
       </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
         <v>70</v>
@@ -2620,7 +2659,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B106" t="s">
         <v>70</v>
@@ -2634,7 +2673,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
         <v>70</v>
@@ -2648,7 +2687,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B108" t="s">
         <v>70</v>
@@ -2662,27 +2701,21 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>138</v>
       </c>
       <c r="G109" t="s">
         <v>191</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -2696,10 +2729,13 @@
       <c r="G110" t="s">
         <v>191</v>
       </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -2716,7 +2752,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -2733,7 +2769,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -2741,16 +2777,16 @@
       <c r="C113" t="b">
         <v>1</v>
       </c>
+      <c r="E113" t="s">
+        <v>138</v>
+      </c>
       <c r="G113" t="s">
         <v>191</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
         <v>77</v>
@@ -2761,10 +2797,13 @@
       <c r="G114" t="s">
         <v>191</v>
       </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -2772,16 +2811,13 @@
       <c r="C115" t="b">
         <v>1</v>
       </c>
-      <c r="E115" t="s">
-        <v>137</v>
-      </c>
       <c r="G115" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -2789,16 +2825,19 @@
       <c r="C116" t="b">
         <v>1</v>
       </c>
+      <c r="E116" t="s">
+        <v>137</v>
+      </c>
       <c r="G116" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
@@ -2806,13 +2845,10 @@
       <c r="G117" t="s">
         <v>191</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
         <v>86</v>
@@ -2823,10 +2859,13 @@
       <c r="G118" t="s">
         <v>191</v>
       </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
         <v>86</v>
@@ -2840,7 +2879,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
         <v>86</v>
@@ -2851,13 +2890,10 @@
       <c r="G120" t="s">
         <v>191</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
         <v>86</v>
@@ -2868,10 +2904,13 @@
       <c r="G121" t="s">
         <v>191</v>
       </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
         <v>86</v>
@@ -2885,23 +2924,169 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
       </c>
       <c r="C124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" t="s">
+        <v>228</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" t="b">
         <v>1</v>
       </c>
     </row>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95B243-7C99-7D45-976E-00EDE20D3F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E5BC9-5AE2-F449-970A-904CF3206606}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18900" yWindow="5840" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="230">
   <si>
     <t>CV</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>SocialMale</t>
+  </si>
+  <si>
+    <t>modelMC</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127:C137"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1130,9 @@
       <c r="J2" t="s">
         <v>214</v>
       </c>
+      <c r="K2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1599,7 +1605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1728,8 +1734,11 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -1908,8 +1917,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +2039,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E5BC9-5AE2-F449-970A-904CF3206606}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2066A269-DAAE-C044-AA21-19E44D9EB314}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
     <t>SocialMale</t>
   </si>
   <si>
-    <t>modelMC</t>
+    <t>2,4,5</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,9 +1130,6 @@
       <c r="J2" t="s">
         <v>214</v>
       </c>
-      <c r="K2" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1605,7 +1602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1722,23 +1719,23 @@
       <c r="D40" t="s">
         <v>199</v>
       </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
       <c r="F40" t="s">
         <v>105</v>
       </c>
       <c r="G40" t="s">
         <v>200</v>
       </c>
-      <c r="H40" t="s">
-        <v>200</v>
+      <c r="H40">
+        <v>5</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1808,7 +1805,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -1905,23 +1902,23 @@
       <c r="D52" t="s">
         <v>199</v>
       </c>
+      <c r="E52" t="s">
+        <v>204</v>
+      </c>
       <c r="F52" t="s">
         <v>183</v>
       </c>
       <c r="G52" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1977,7 +1974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2066A269-DAAE-C044-AA21-19E44D9EB314}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6EDEF-CD6E-EC4E-BC25-AAB85D037648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
   <si>
     <t>CV</t>
   </si>
@@ -496,9 +496,6 @@
     <t>1,2,10,11</t>
   </si>
   <si>
-    <t>2,3,4,5,7</t>
-  </si>
-  <si>
     <t>Use - something weird about it</t>
   </si>
   <si>
@@ -715,7 +712,10 @@
     <t>SocialMale</t>
   </si>
   <si>
-    <t>2,4,5</t>
+    <t>2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>modelMC</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,13 +1084,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1110,7 +1110,7 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -1119,16 +1119,19 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" t="s">
         <v>213</v>
       </c>
-      <c r="J2" t="s">
-        <v>214</v>
+      <c r="K2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1167,7 +1170,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1457,13 +1460,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="G24" t="s">
-        <v>201</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1497,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
         <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H26">
         <v>7</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1565,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,7 +1608,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1717,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" t="s">
-        <v>200</v>
       </c>
       <c r="F40" t="s">
         <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1734,8 +1740,11 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1847,9 +1856,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1861,9 +1870,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -1872,12 +1881,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -1886,12 +1895,12 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -1900,27 +1909,30 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -1932,9 +1944,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -1946,9 +1958,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
@@ -1957,12 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -1971,12 +1983,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -1985,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2047,19 +2059,19 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F61" t="s">
         <v>105</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -2107,10 +2119,10 @@
         <v>125</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
+        <v>196</v>
+      </c>
+      <c r="H64" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2132,7 +2144,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -2143,7 +2155,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -2154,7 +2166,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -2165,7 +2177,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -2176,7 +2188,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -2187,7 +2199,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
@@ -2198,7 +2210,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -2209,7 +2221,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
@@ -2220,7 +2232,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -2231,7 +2243,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -2242,7 +2254,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>45</v>
@@ -2253,7 +2265,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
@@ -2264,7 +2276,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -2334,7 +2346,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
@@ -2345,7 +2357,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2432,7 +2444,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2441,12 +2453,12 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
         <v>53</v>
@@ -2457,7 +2469,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>53</v>
@@ -2466,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -2477,7 +2489,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
@@ -2488,7 +2500,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
@@ -2497,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G94">
         <v>9</v>
@@ -2511,7 +2523,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -2573,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -2646,7 +2658,7 @@
         <v>99</v>
       </c>
       <c r="G104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -2663,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -2677,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -2691,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2705,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -2736,7 +2748,7 @@
         <v>138</v>
       </c>
       <c r="G110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -2756,7 +2768,7 @@
         <v>138</v>
       </c>
       <c r="G111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -2773,7 +2785,7 @@
         <v>138</v>
       </c>
       <c r="G112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -2790,7 +2802,7 @@
         <v>138</v>
       </c>
       <c r="G113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -2804,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -2821,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -2838,7 +2850,7 @@
         <v>137</v>
       </c>
       <c r="G116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -2852,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -2866,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -2883,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -2897,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -2911,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -2928,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -2942,12 +2954,12 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -2958,7 +2970,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -2969,7 +2981,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -2980,10 +2992,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -2991,10 +3003,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -3002,10 +3014,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -3013,10 +3025,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -3024,10 +3036,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -3035,10 +3047,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -3057,10 +3069,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -3068,10 +3080,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -3079,10 +3091,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -3090,10 +3102,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" t="s">
         <v>227</v>
-      </c>
-      <c r="B137" t="s">
-        <v>228</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6EDEF-CD6E-EC4E-BC25-AAB85D037648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC57673-5C88-0342-A7ED-6C5A3FEED8E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
   <si>
     <t>CV</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>modelMC</t>
+  </si>
+  <si>
+    <t>modelCV10_3</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,6 +1136,9 @@
       <c r="K2" t="s">
         <v>229</v>
       </c>
+      <c r="L2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1469,10 +1475,10 @@
         <v>105</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC57673-5C88-0342-A7ED-6C5A3FEED8E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD109DD8-98CB-FA4E-B233-F0D4882FA3B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1480,8 +1480,11 @@
       <c r="H24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD109DD8-98CB-FA4E-B233-F0D4882FA3B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B4C11-EE28-814B-AA1E-E9E7AEBE14C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>modelCV10_3</t>
+  </si>
+  <si>
+    <t>Nvideos</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,24 +1088,24 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
         <v>192</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1119,28 +1122,31 @@
         <v>96</v>
       </c>
       <c r="F2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>193</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>212</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>213</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>229</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1150,14 +1156,14 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>101</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1167,14 +1173,14 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1184,14 +1190,14 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1201,14 +1207,14 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1218,11 +1224,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1232,14 +1238,14 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1249,14 +1255,14 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1266,11 +1272,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1280,11 +1286,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1294,11 +1300,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1308,14 +1314,14 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1325,11 +1331,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1339,11 +1345,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1353,11 +1359,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1367,11 +1373,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1381,11 +1387,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1395,11 +1401,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1409,11 +1415,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1423,11 +1429,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1437,11 +1443,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1451,11 +1457,11 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1471,20 +1477,20 @@
       <c r="E24" t="s">
         <v>200</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>105</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1494,14 +1500,14 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>105</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1514,17 +1520,17 @@
       <c r="D26" t="s">
         <v>198</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>105</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>201</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1534,11 +1540,11 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1548,11 +1554,11 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1562,14 +1568,14 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>105</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -1579,11 +1585,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1593,14 +1599,14 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>116</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1610,14 +1616,14 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>105</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1627,11 +1633,11 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1644,11 +1650,11 @@
       <c r="E34" t="s">
         <v>98</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1658,11 +1664,11 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1672,11 +1678,11 @@
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1686,11 +1692,11 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1700,11 +1706,11 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1714,14 +1720,14 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1737,23 +1743,23 @@
       <c r="E40" t="s">
         <v>199</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>105</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>199</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>5</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1763,11 +1769,11 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1777,11 +1783,11 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1791,11 +1797,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1805,11 +1811,11 @@
       <c r="C44" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1819,11 +1825,11 @@
       <c r="C45" t="b">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1833,11 +1839,11 @@
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1847,11 +1853,11 @@
       <c r="C47" t="b">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1861,11 +1867,11 @@
       <c r="C48" t="b">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -1875,11 +1881,11 @@
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -1889,11 +1895,11 @@
       <c r="C50" t="b">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1903,11 +1909,11 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -1923,23 +1929,23 @@
       <c r="E52" t="s">
         <v>203</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>182</v>
-      </c>
-      <c r="G52" t="s">
-        <v>203</v>
       </c>
       <c r="H52" t="s">
         <v>203</v>
       </c>
-      <c r="J52" t="b">
-        <v>1</v>
+      <c r="I52" t="s">
+        <v>203</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -1949,11 +1955,11 @@
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -1963,11 +1969,11 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -1977,11 +1983,11 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -1991,11 +1997,11 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -2005,11 +2011,11 @@
       <c r="C57" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2019,11 +2025,11 @@
       <c r="C58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2033,11 +2039,11 @@
       <c r="C59" t="b">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2050,14 +2056,14 @@
       <c r="E60" t="s">
         <v>99</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>105</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2070,17 +2076,20 @@
       <c r="D61" t="s">
         <v>198</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
         <v>105</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
         <v>228</v>
       </c>
-      <c r="H61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2090,11 +2099,11 @@
       <c r="C62" t="b">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2104,11 +2113,11 @@
       <c r="C63" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2124,17 +2133,17 @@
       <c r="E64" t="s">
         <v>99</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>125</v>
-      </c>
-      <c r="G64" t="s">
-        <v>196</v>
       </c>
       <c r="H64" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -2147,11 +2156,11 @@
       <c r="E65" t="s">
         <v>99</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -2304,11 +2313,11 @@
       <c r="C79" t="b">
         <v>1</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -2321,11 +2330,11 @@
       <c r="E80" t="s">
         <v>98</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2335,11 +2344,11 @@
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2349,11 +2358,11 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2385,11 +2394,11 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -2399,11 +2408,11 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2416,11 +2425,11 @@
       <c r="E87" t="s">
         <v>99</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2430,11 +2439,11 @@
       <c r="C88" t="b">
         <v>1</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2447,11 +2456,11 @@
       <c r="E89" t="s">
         <v>99</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -2489,14 +2498,14 @@
       <c r="D92" t="s">
         <v>198</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>202</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -2520,17 +2529,17 @@
       <c r="D94" t="s">
         <v>198</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>204</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>9</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -2551,11 +2560,11 @@
       <c r="C96" t="b">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -2565,11 +2574,11 @@
       <c r="C97" t="b">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -2579,11 +2588,11 @@
       <c r="C98" t="b">
         <v>1</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -2593,11 +2602,11 @@
       <c r="C99" t="b">
         <v>1</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -2607,11 +2616,11 @@
       <c r="C100" t="b">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -2621,11 +2630,11 @@
       <c r="C101" t="b">
         <v>1</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -2635,11 +2644,11 @@
       <c r="C102" t="b">
         <v>1</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -2649,11 +2658,11 @@
       <c r="C103" t="b">
         <v>1</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -2666,14 +2675,14 @@
       <c r="E104" t="s">
         <v>99</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>190</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>72</v>
       </c>
@@ -2683,11 +2692,11 @@
       <c r="C105" t="b">
         <v>1</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>73</v>
       </c>
@@ -2697,11 +2706,11 @@
       <c r="C106" t="b">
         <v>1</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>74</v>
       </c>
@@ -2711,11 +2720,11 @@
       <c r="C107" t="b">
         <v>1</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>75</v>
       </c>
@@ -2725,11 +2734,11 @@
       <c r="C108" t="b">
         <v>1</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>76</v>
       </c>
@@ -2739,11 +2748,11 @@
       <c r="C109" t="b">
         <v>1</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -2756,14 +2765,14 @@
       <c r="E110" t="s">
         <v>138</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>190</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -2776,11 +2785,11 @@
       <c r="E111" t="s">
         <v>138</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>80</v>
       </c>
@@ -2793,11 +2802,11 @@
       <c r="E112" t="s">
         <v>138</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -2810,11 +2819,11 @@
       <c r="E113" t="s">
         <v>138</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -2824,14 +2833,14 @@
       <c r="C114" t="b">
         <v>1</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>190</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -2841,11 +2850,11 @@
       <c r="C115" t="b">
         <v>1</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -2858,11 +2867,11 @@
       <c r="E116" t="s">
         <v>137</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>82</v>
       </c>
@@ -2872,11 +2881,11 @@
       <c r="C117" t="b">
         <v>1</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -2886,14 +2895,14 @@
       <c r="C118" t="b">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>190</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -2903,11 +2912,11 @@
       <c r="C119" t="b">
         <v>1</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -2917,11 +2926,11 @@
       <c r="C120" t="b">
         <v>1</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -2931,14 +2940,14 @@
       <c r="C121" t="b">
         <v>1</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>190</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>91</v>
       </c>
@@ -2948,11 +2957,11 @@
       <c r="C122" t="b">
         <v>1</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -2962,11 +2971,11 @@
       <c r="C123" t="b">
         <v>1</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>210</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>211</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>216</v>
       </c>
@@ -3010,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -3122,7 +3131,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="J1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B4C11-EE28-814B-AA1E-E9E7AEBE14C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C079A1-F2FB-0840-8F89-E011E15B429C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="233">
   <si>
     <t>CV</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>Nvideos</t>
+  </si>
+  <si>
+    <t>5,6,7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1750,7 @@
         <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="I40">
         <v>5</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C079A1-F2FB-0840-8F89-E011E15B429C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022969B-A289-A14D-AE2E-EDC005613630}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="233">
   <si>
     <t>CV</t>
   </si>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,11 +1483,11 @@
       <c r="G24" t="s">
         <v>105</v>
       </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022969B-A289-A14D-AE2E-EDC005613630}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8B810-5BC1-3F4F-A33B-E512DF8D6B8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>Nvideos</t>
-  </si>
-  <si>
-    <t>5,6,7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1747,7 @@
         <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="I40">
         <v>5</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8B810-5BC1-3F4F-A33B-E512DF8D6B8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66420DBF-743F-124E-B9AD-C4345D76724F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,11 +1932,11 @@
       <c r="G52" t="s">
         <v>182</v>
       </c>
-      <c r="H52" t="s">
-        <v>203</v>
-      </c>
-      <c r="I52" t="s">
-        <v>203</v>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66420DBF-743F-124E-B9AD-C4345D76724F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DCE68D-D441-9B4E-A0EF-8CFF0AE9AA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -1932,11 +1932,11 @@
       <c r="G52" t="s">
         <v>182</v>
       </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
+        <v>146</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DCE68D-D441-9B4E-A0EF-8CFF0AE9AA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D4BA6-DCBA-794F-9257-81465CEC518D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2136,8 +2136,8 @@
       <c r="G64" t="s">
         <v>125</v>
       </c>
-      <c r="H64" t="s">
-        <v>196</v>
+      <c r="H64">
+        <v>4</v>
       </c>
       <c r="I64" t="s">
         <v>196</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D4BA6-DCBA-794F-9257-81465CEC518D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A181021-9005-E349-9930-D29681E92B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1933,10 +1933,10 @@
         <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="I52" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A181021-9005-E349-9930-D29681E92B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B726367-97A9-7941-B9EA-3255BF28A1C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2498,11 +2498,14 @@
       <c r="D92" t="s">
         <v>198</v>
       </c>
+      <c r="G92" t="s">
+        <v>202</v>
+      </c>
       <c r="H92" t="s">
         <v>202</v>
       </c>
-      <c r="I92">
-        <v>4</v>
+      <c r="I92" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -2532,11 +2535,11 @@
       <c r="G94" t="s">
         <v>204</v>
       </c>
-      <c r="H94">
-        <v>9</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
+      <c r="H94" t="s">
+        <v>204</v>
+      </c>
+      <c r="I94" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B726367-97A9-7941-B9EA-3255BF28A1C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7557D3-6750-6042-A22D-4E0C38F2E3CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -16,17 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
   <si>
     <t>CV</t>
   </si>
@@ -634,13 +639,7 @@
     <t>7,8,9,10,11,12</t>
   </si>
   <si>
-    <t>4,5,6,7,8,9</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>7,8,9</t>
   </si>
   <si>
     <t>TI14_1_050519</t>
@@ -1079,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1121,7 @@
         <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
         <v>100</v>
@@ -1134,16 +1133,16 @@
         <v>193</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1927,16 +1926,16 @@
         <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" t="s">
         <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -2086,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2272,7 +2271,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
         <v>45</v>
@@ -2283,7 +2282,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
@@ -2294,7 +2293,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -2375,7 +2374,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2462,7 +2461,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2471,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -2499,13 +2498,13 @@
         <v>198</v>
       </c>
       <c r="G92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -2533,13 +2532,13 @@
         <v>198</v>
       </c>
       <c r="G94" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H94" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -2980,7 +2979,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -2991,7 +2990,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -3002,7 +3001,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -3013,10 +3012,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -3024,10 +3023,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -3035,10 +3034,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -3046,10 +3045,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -3057,10 +3056,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B131" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -3068,10 +3067,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -3079,10 +3078,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -3090,10 +3089,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -3101,10 +3100,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -3112,10 +3111,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" t="s">
         <v>225</v>
-      </c>
-      <c r="B136" t="s">
-        <v>227</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -3123,10 +3122,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7557D3-6750-6042-A22D-4E0C38F2E3CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90EE1F-FD8C-A140-BA54-7AF1FE785A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2075,6 +2075,9 @@
       <c r="D61" t="s">
         <v>198</v>
       </c>
+      <c r="E61" t="s">
+        <v>226</v>
+      </c>
       <c r="F61">
         <v>7</v>
       </c>
@@ -2084,8 +2087,8 @@
       <c r="H61">
         <v>4</v>
       </c>
-      <c r="I61" t="s">
-        <v>226</v>
+      <c r="I61">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90EE1F-FD8C-A140-BA54-7AF1FE785A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B20BD-F1FC-BE4A-9EE0-C84CA7CD4086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="230">
   <si>
     <t>CV</t>
   </si>
@@ -2084,8 +2084,8 @@
       <c r="G61" t="s">
         <v>105</v>
       </c>
-      <c r="H61">
-        <v>4</v>
+      <c r="H61" t="s">
+        <v>226</v>
       </c>
       <c r="I61">
         <v>4</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B20BD-F1FC-BE4A-9EE0-C84CA7CD4086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BE33F-49EA-6E4D-B013-AB62C34FDB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="230">
   <si>
     <t>CV</t>
   </si>
@@ -621,9 +621,6 @@
     <t>Machine Learning Models. Enter the videos you want included in the machine learning model</t>
   </si>
   <si>
-    <t>4,5,6</t>
-  </si>
-  <si>
     <t>PaperTrials</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>Nvideos</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7,8</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,13 +1115,13 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>100</v>
@@ -1133,16 +1133,16 @@
         <v>193</v>
       </c>
       <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
         <v>210</v>
       </c>
-      <c r="K2" t="s">
-        <v>211</v>
-      </c>
       <c r="L2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" t="s">
         <v>227</v>
-      </c>
-      <c r="M2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1471,19 +1471,19 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
         <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -1517,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
         <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -1737,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
         <v>198</v>
-      </c>
-      <c r="E40" t="s">
-        <v>199</v>
       </c>
       <c r="G40" t="s">
         <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -1923,19 +1923,19 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G52" t="s">
         <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2085,7 +2085,7 @@
         <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -2138,11 +2138,11 @@
       <c r="G64" t="s">
         <v>125</v>
       </c>
-      <c r="H64">
-        <v>4</v>
+      <c r="H64" t="s">
+        <v>229</v>
       </c>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
         <v>45</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -2498,16 +2498,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" t="s">
         <v>198</v>
       </c>
-      <c r="G92" t="s">
-        <v>199</v>
-      </c>
       <c r="H92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -2532,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" t="s">
         <v>198</v>
       </c>
-      <c r="G94" t="s">
-        <v>199</v>
-      </c>
       <c r="H94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -2982,7 +2982,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" t="s">
         <v>224</v>
-      </c>
-      <c r="B137" t="s">
-        <v>225</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BE33F-49EA-6E4D-B013-AB62C34FDB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93891F-CBF5-B740-A9AD-9B528CF51734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
   <si>
     <t>CV</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,11 +1522,14 @@
       <c r="D26" t="s">
         <v>197</v>
       </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
       <c r="G26" t="s">
         <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="I26">
         <v>7</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93891F-CBF5-B740-A9AD-9B528CF51734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C66A6-04F1-A44B-B253-EFB72CCB994D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
   <si>
     <t>CV</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Maybe - 1 day of building</t>
   </si>
   <si>
-    <t>2,3,4,5,14</t>
-  </si>
-  <si>
     <t>1,2,3,4</t>
   </si>
   <si>
@@ -724,6 +721,12 @@
   </si>
   <si>
     <t>8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,14</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,13 +1095,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1118,34 +1121,34 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
         <v>209</v>
       </c>
-      <c r="K2" t="s">
-        <v>210</v>
-      </c>
       <c r="L2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" t="s">
         <v>226</v>
-      </c>
-      <c r="M2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1184,7 +1187,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1474,19 +1477,19 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
         <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -1520,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
         <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -1577,12 +1580,12 @@
         <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1608,7 +1611,7 @@
         <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1729,7 +1732,7 @@
         <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1743,16 +1746,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
         <v>197</v>
-      </c>
-      <c r="E40" t="s">
-        <v>198</v>
       </c>
       <c r="G40" t="s">
         <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -1901,12 +1904,12 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -1915,12 +1918,12 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -1929,19 +1932,19 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
@@ -1989,12 +1992,12 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -2003,12 +2006,12 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -2017,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2065,7 +2068,7 @@
         <v>105</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2079,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2091,7 +2094,7 @@
         <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -2136,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -2145,10 +2148,10 @@
         <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2170,7 +2173,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -2214,7 +2217,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -2269,7 +2272,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -2280,7 +2283,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
         <v>45</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -2479,12 +2482,12 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>53</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
         <v>53</v>
@@ -2504,21 +2507,21 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="G92" t="s">
-        <v>198</v>
-      </c>
-      <c r="H92" t="s">
-        <v>198</v>
+      <c r="H92">
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
@@ -2538,21 +2541,21 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="G94" t="s">
-        <v>198</v>
-      </c>
       <c r="H94" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="I94" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -2614,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -2687,7 +2690,7 @@
         <v>99</v>
       </c>
       <c r="H104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -2746,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -2760,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -2777,7 +2780,7 @@
         <v>138</v>
       </c>
       <c r="H110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -2797,7 +2800,7 @@
         <v>138</v>
       </c>
       <c r="H111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -2814,7 +2817,7 @@
         <v>138</v>
       </c>
       <c r="H112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -2831,7 +2834,7 @@
         <v>138</v>
       </c>
       <c r="H113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -2862,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -2879,7 +2882,7 @@
         <v>137</v>
       </c>
       <c r="H116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -2907,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -2924,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -2952,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -2969,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,12 +2986,12 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -3010,7 +3013,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -3021,10 +3024,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -3032,10 +3035,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -3043,10 +3046,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -3054,10 +3057,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -3065,10 +3068,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -3076,10 +3079,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -3087,10 +3090,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -3109,10 +3112,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -3120,10 +3123,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -3131,10 +3134,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" t="s">
         <v>223</v>
-      </c>
-      <c r="B137" t="s">
-        <v>224</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C66A6-04F1-A44B-B253-EFB72CCB994D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB01F5B-498A-1A48-9B8F-32BFCB6D7CDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="5740" yWindow="3880" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="239">
   <si>
     <t>CV</t>
   </si>
@@ -727,6 +727,27 @@
   </si>
   <si>
     <t>6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>modelTI2_4</t>
+  </si>
+  <si>
+    <t>modelTI3_3</t>
+  </si>
+  <si>
+    <t>modelTI</t>
+  </si>
+  <si>
+    <t>modelF1a</t>
+  </si>
+  <si>
+    <t>modelF1b</t>
+  </si>
+  <si>
+    <t>modelF1</t>
+  </si>
+  <si>
+    <t>modelAll</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T123" sqref="T123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1114,7 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>191</v>
       </c>
@@ -1110,7 +1131,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1150,8 +1171,29 @@
       <c r="M2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1227,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -1202,7 +1244,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1261,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1250,7 +1292,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1351,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1368,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1410,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1452,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1438,7 +1480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1494,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1536,11 @@
       <c r="M24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1628,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -1597,7 +1642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1659,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1721,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1780,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1766,8 +1811,11 @@
       <c r="L40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1795,7 +1843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1857,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1823,7 +1871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1837,7 +1885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +1927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -1893,7 +1941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -1907,7 +1955,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -1921,7 +1969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -1952,8 +2000,11 @@
       <c r="L52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -1967,7 +2018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -1981,7 +2032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -1994,8 +2045,14 @@
       <c r="G55" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -2009,7 +2066,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -2023,7 +2080,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2037,7 +2094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2051,7 +2108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2071,7 +2128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2099,8 +2156,17 @@
       <c r="I61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2114,7 +2180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2128,7 +2194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2152,6 +2218,15 @@
       </c>
       <c r="I64" t="s">
         <v>228</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2345,7 +2420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2359,7 +2434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2373,7 +2448,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -2384,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -2395,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2409,7 +2484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -2423,7 +2498,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2454,7 +2529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +2546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -2485,7 +2560,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -2496,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2518,8 +2593,17 @@
       <c r="I92" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
+      <c r="S92" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -2530,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -2547,13 +2631,22 @@
         <v>197</v>
       </c>
       <c r="H94" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="I94" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="R94" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -2564,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>63</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB01F5B-498A-1A48-9B8F-32BFCB6D7CDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98B34E-15EF-3B40-AB22-FF1426DE0CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="3880" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="239">
   <si>
     <t>CV</t>
   </si>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T123" sqref="T123"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,8 +2630,8 @@
       <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="H94" t="s">
-        <v>144</v>
+      <c r="H94">
+        <v>10</v>
       </c>
       <c r="I94" t="s">
         <v>231</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98B34E-15EF-3B40-AB22-FF1426DE0CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7690A58-5D54-DF41-8A44-1240B5DFF282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="3880" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="240">
   <si>
     <t>CV</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>modelAll</t>
+  </si>
+  <si>
+    <t>modelMCLike</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1117,7 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>191</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1192,8 +1195,11 @@
       <c r="T2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1814,8 +1820,11 @@
       <c r="T40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -2003,8 +2012,11 @@
       <c r="T52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2420,7 +2432,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2602,8 +2614,11 @@
       <c r="T92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -2645,8 +2660,11 @@
       <c r="T94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -2657,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>63</v>
       </c>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7690A58-5D54-DF41-8A44-1240B5DFF282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C927CC4-005A-314A-BCF1-0CE79815CA27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
   <si>
     <t>CV</t>
   </si>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="R94" sqref="R94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2785,6 +2785,9 @@
       </c>
       <c r="G103" t="s">
         <v>105</v>
+      </c>
+      <c r="H103" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C927CC4-005A-314A-BCF1-0CE79815CA27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D36754-E8CF-7048-AE11-E0E697A16BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="240">
   <si>
     <t>CV</t>
   </si>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
-      <selection activeCell="R94" sqref="R94"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2599,8 +2599,8 @@
       <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="H92">
-        <v>10</v>
+      <c r="H92" t="s">
+        <v>197</v>
       </c>
       <c r="I92" t="s">
         <v>197</v>
@@ -2645,8 +2645,8 @@
       <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="H94">
-        <v>10</v>
+      <c r="H94" t="s">
+        <v>197</v>
       </c>
       <c r="I94" t="s">
         <v>231</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D36754-E8CF-7048-AE11-E0E697A16BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A7541C-F9DE-7E43-9158-06AD593A228F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="243">
   <si>
     <t>CV</t>
   </si>
@@ -751,6 +751,15 @@
   </si>
   <si>
     <t>modelMCLike</t>
+  </si>
+  <si>
+    <t>1,2,3,8</t>
+  </si>
+  <si>
+    <t>1,9,10</t>
+  </si>
+  <si>
+    <t>1,2,9,10</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1543,7 @@
         <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="I24" t="s">
         <v>198</v>
@@ -2163,7 +2172,7 @@
         <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -2226,7 +2235,7 @@
         <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I64" t="s">
         <v>228</v>

--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A7541C-F9DE-7E43-9158-06AD593A228F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77540B-A137-404C-960C-DF4E5D466885}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="241">
   <si>
     <t>CV</t>
   </si>
@@ -753,13 +753,7 @@
     <t>modelMCLike</t>
   </si>
   <si>
-    <t>1,2,3,8</t>
-  </si>
-  <si>
-    <t>1,9,10</t>
-  </si>
-  <si>
-    <t>1,2,9,10</t>
+    <t>1,2,3,4,5,6,7,8</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -2172,7 +2166,7 @@
         <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -2235,7 +2229,7 @@
         <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="I64" t="s">
         <v>228</v>
